--- a/dist/الحافظين الجدد ١.xlsx
+++ b/dist/الحافظين الجدد ١.xlsx
@@ -58,13 +58,13 @@
     <t>الجمعة</t>
   </si>
   <si>
-    <t>جديد</t>
-  </si>
-  <si>
-    <t>تراكمي</t>
-  </si>
-  <si>
-    <t>قديم</t>
+    <t>ج</t>
+  </si>
+  <si>
+    <t>ك</t>
+  </si>
+  <si>
+    <t>ق</t>
   </si>
   <si>
     <t>م ج</t>
@@ -83,7 +83,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -92,12 +92,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="1"/>
@@ -158,7 +152,7 @@
     <xf applyFont="1" fontId="1" applyBorder="1" borderId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyFont="1" fontId="2" applyBorder="1" borderId="2" applyAlignment="1">
+    <xf applyFont="1" fontId="1" applyBorder="1" borderId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -170,7 +164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE5"/>
+  <dimension ref="A1:AD5"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="true" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -251,7 +245,7 @@
       </c>
       <c r="N2" s="1"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -263,39 +257,38 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="R4" s="2"/>
       <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="U4" s="2"/>
       <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2" t="s">
+      <c r="W4" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:30">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -364,21 +357,18 @@
         <v>17</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE5" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -392,13 +382,13 @@
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="A4:D5"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:W4"/>
-    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="W4:Y4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
